--- a/牛客笔试题/接口.xlsx
+++ b/牛客笔试题/接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="9140"/>
+    <workbookView windowWidth="13875" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -32,6 +32,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -40,6 +54,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -49,22 +102,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -73,58 +118,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,16 +131,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,16 +169,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,13 +185,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,37 +329,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,49 +341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,73 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,30 +400,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -444,11 +429,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,16 +454,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,16 +496,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -514,115 +514,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -721,8 +721,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="222250"/>
-          <a:ext cx="6146800" cy="3759200"/>
+          <a:off x="438785" y="215900"/>
+          <a:ext cx="6717665" cy="3625850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -763,8 +763,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6762750" y="1447800"/>
-          <a:ext cx="8185785" cy="1073150"/>
+          <a:off x="7372985" y="1397000"/>
+          <a:ext cx="8933815" cy="1035050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -805,8 +805,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495300" y="4972050"/>
-          <a:ext cx="2844800" cy="2876550"/>
+          <a:off x="534670" y="4800600"/>
+          <a:ext cx="3100705" cy="2768600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -847,8 +847,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4159250" y="6007100"/>
-          <a:ext cx="1397000" cy="247650"/>
+          <a:off x="4533265" y="5797550"/>
+          <a:ext cx="1515110" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -889,8 +889,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="8743950"/>
-          <a:ext cx="6388735" cy="2616200"/>
+          <a:off x="635" y="8432800"/>
+          <a:ext cx="6959600" cy="2527300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -931,8 +931,92 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6648450" y="8483600"/>
-          <a:ext cx="3632200" cy="4070350"/>
+          <a:off x="7239000" y="8185150"/>
+          <a:ext cx="3966845" cy="3924300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>216535</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>170815</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="216535" y="12830175"/>
+          <a:ext cx="6315075" cy="3686175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>187960</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="423545" y="16735425"/>
+          <a:ext cx="5000625" cy="2647950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1237,13 +1321,13 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="AH53" sqref="AH53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="AE86" sqref="AE86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.09090909090909" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="3.09166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="3.09090909090909" customWidth="1"/>
+    <col min="1" max="16384" width="3.09166666666667" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1262,7 +1346,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1279,7 +1363,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
